--- a/Data_all/Data_16_all.xlsx
+++ b/Data_all/Data_16_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>平均エラー数</t>
     <rPh sb="0" eb="2">
@@ -141,6 +141,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -169,18 +176,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -210,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -226,8 +227,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -529,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1853,21 +1852,99 @@
         <v>1.4306666666666665</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A21" s="8">
-        <f>AVERAGE(L3:L18)</f>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4">
+        <f>AVERAGE(B3:B18)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" ref="C19:L19" si="10">AVERAGE(C3:C18)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="10"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="10"/>
+        <v>0.10416666666666666</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="10"/>
+        <v>0.1875</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="10"/>
+        <v>0.10416666666666666</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="10"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="10"/>
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="10"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="10"/>
         <v>7.9166666666666663E-2</v>
       </c>
-      <c r="N21" s="8">
-        <f>AVERAGE(Y3:Y18)</f>
+      <c r="N19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="4">
+        <f>AVERAGE(O3:O18)</f>
+        <v>1.0904166666666668</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" ref="P19:Y19" si="11">AVERAGE(P3:P18)</f>
+        <v>1.2362500000000001</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="11"/>
+        <v>1.3412500000000001</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="11"/>
+        <v>1.1858333333333333</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="11"/>
+        <v>1.2475000000000001</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="11"/>
+        <v>1.2308333333333337</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="11"/>
+        <v>1.2770833333333333</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="11"/>
+        <v>1.25875</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="11"/>
+        <v>1.5524999999999998</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="11"/>
+        <v>1.3116666666666663</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" si="11"/>
         <v>1.2732083333333333</v>
       </c>
     </row>

--- a/Data_all/Data_16_all.xlsx
+++ b/Data_all/Data_16_all.xlsx
@@ -239,6 +239,483 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="186086528"/>
+        <c:axId val="186088064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="186086528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186088064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186088064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186086528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.4006666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6673333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2146666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2713333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0973333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99066666666666658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0153333333333332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1866666666666665</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3926666666666665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5606666666666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4306666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="186120448"/>
+        <c:axId val="186724352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="186120448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186724352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186724352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186120448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>550334</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>306917</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>423332</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,7 +1008,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="Y3" sqref="Y3:Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1956,6 +2433,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data_all/Data_16_all.xlsx
+++ b/Data_all/Data_16_all.xlsx
@@ -268,8 +268,122 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>0.26666666666666666</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.30550504633038933</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.22110831935702666</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.21343747458109494</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.22110831935702668</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.30550504633038938</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.26666666666666666</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>0.26666666666666666</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.30550504633038933</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.22110831935702666</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.21343747458109494</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.22110831935702668</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.30550504633038938</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.26666666666666666</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -395,11 +509,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="186086528"/>
-        <c:axId val="186088064"/>
+        <c:axId val="165651584"/>
+        <c:axId val="165653120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186086528"/>
+        <c:axId val="165651584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -409,7 +523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186088064"/>
+        <c:crossAx val="165653120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -417,10 +531,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186088064"/>
+        <c:axId val="165653120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.4"/>
+          <c:max val="0.9"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -430,7 +544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186086528"/>
+        <c:crossAx val="165651584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -474,8 +588,122 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>0.31329716103263816</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.36705978925631277</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.34652304717323268</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.12957365987473213</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.29611109026474691</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.19962297796930453</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.10329891900047489</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11547775158493241</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.11696913173046075</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.10101925009070739</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.10370899457402698</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.12757568559704369</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.14201095419407189</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.353665881243238</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.34340064065170234</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.4239937106451781</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>0.31329716103263816</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.36705978925631277</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.34652304717323268</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.12957365987473213</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.29611109026474691</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.19962297796930453</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.10329891900047489</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11547775158493241</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.11696913173046075</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.10101925009070739</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.10370899457402698</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.12757568559704369</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.14201095419407189</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.353665881243238</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.34340064065170234</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.4239937106451781</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -601,11 +829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="186120448"/>
-        <c:axId val="186724352"/>
+        <c:axId val="166476032"/>
+        <c:axId val="166481920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186120448"/>
+        <c:axId val="166476032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186724352"/>
+        <c:crossAx val="166481920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -623,10 +851,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186724352"/>
+        <c:axId val="166481920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
+          <c:max val="3"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -636,7 +864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186120448"/>
+        <c:crossAx val="166476032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1005,15 +1233,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1043,7 +1271,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1113,7 +1341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1151,6 +1379,10 @@
         <f>AVERAGE(B3:K3)</f>
         <v>0.13333333333333333</v>
       </c>
+      <c r="M3">
+        <f>_xlfn.STDEV.P(B3:K3)</f>
+        <v>0.26666666666666666</v>
+      </c>
       <c r="N3" s="3">
         <v>0</v>
       </c>
@@ -1188,8 +1420,12 @@
         <f>AVERAGE(O3:X3)</f>
         <v>1.4006666666666669</v>
       </c>
+      <c r="Z3">
+        <f>_xlfn.STDEV.P(O3:X3)</f>
+        <v>0.31329716103263816</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1227,6 +1463,10 @@
         <f t="shared" ref="L4:L6" si="0">AVERAGE(B4:K4)</f>
         <v>0.2</v>
       </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M18" si="1">_xlfn.STDEV.P(B4:K4)</f>
+        <v>0.30550504633038933</v>
+      </c>
       <c r="N4" s="3">
         <v>1</v>
       </c>
@@ -1261,11 +1501,15 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" ref="Y4:Y6" si="1">AVERAGE(O4:X4)</f>
+        <f t="shared" ref="Y4:Y6" si="2">AVERAGE(O4:X4)</f>
         <v>1.6673333333333331</v>
       </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z18" si="3">_xlfn.STDEV.P(O4:X4)</f>
+        <v>0.36705978925631277</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1303,6 +1547,10 @@
         <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0.22110831935702666</v>
+      </c>
       <c r="N5" s="3">
         <v>2</v>
       </c>
@@ -1337,11 +1585,15 @@
         <v>1.3733333333333333</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4119999999999999</v>
       </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0.34652304717323268</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1379,6 +1631,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N6" s="3">
         <v>3</v>
       </c>
@@ -1413,11 +1669,15 @@
         <v>1.3</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2146666666666668</v>
       </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>0.12957365987473213</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1455,6 +1715,10 @@
         <f>AVERAGE(B7:K7)</f>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
       <c r="N7" s="3">
         <v>4</v>
       </c>
@@ -1492,8 +1756,12 @@
         <f>AVERAGE(O7:X7)</f>
         <v>1.2560000000000002</v>
       </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>0.29611109026474691</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1531,6 +1799,10 @@
         <f>AVERAGE(B8:K8)</f>
         <v>0.1</v>
       </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0.21343747458109494</v>
+      </c>
       <c r="N8" s="3">
         <v>5</v>
       </c>
@@ -1568,8 +1840,12 @@
         <f>AVERAGE(O8:X8)</f>
         <v>1.2713333333333332</v>
       </c>
+      <c r="Z8">
+        <f t="shared" si="3"/>
+        <v>0.19962297796930453</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1607,6 +1883,10 @@
         <f>AVERAGE(B9:K9)</f>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="N9" s="3">
         <v>6</v>
       </c>
@@ -1644,8 +1924,12 @@
         <f>AVERAGE(O9:X9)</f>
         <v>1.1339999999999999</v>
       </c>
+      <c r="Z9">
+        <f t="shared" si="3"/>
+        <v>0.10329891900047489</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1680,7 +1964,11 @@
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10" si="2">AVERAGE(B10:K10)</f>
+        <f t="shared" ref="L10" si="4">AVERAGE(B10:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="3">
@@ -1717,11 +2005,15 @@
         <v>0.97333333333333327</v>
       </c>
       <c r="Y10" s="5">
-        <f t="shared" ref="Y10" si="3">AVERAGE(O10:X10)</f>
+        <f t="shared" ref="Y10" si="5">AVERAGE(O10:X10)</f>
         <v>1.0973333333333333</v>
       </c>
+      <c r="Z10">
+        <f t="shared" si="3"/>
+        <v>0.11547775158493241</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1757,6 +2049,10 @@
       </c>
       <c r="L11" s="5">
         <f>AVERAGE(B11:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="3">
@@ -1796,8 +2092,12 @@
         <f>AVERAGE(O11:X11)</f>
         <v>0.99066666666666658</v>
       </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>0.11696913173046075</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1832,7 +2132,11 @@
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" ref="L12" si="4">AVERAGE(B12:K12)</f>
+        <f t="shared" ref="L12" si="6">AVERAGE(B12:K12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="3">
@@ -1869,11 +2173,15 @@
         <v>1.0666666666666667</v>
       </c>
       <c r="Y12" s="5">
-        <f t="shared" ref="Y12" si="5">AVERAGE(O12:X12)</f>
+        <f t="shared" ref="Y12" si="7">AVERAGE(O12:X12)</f>
         <v>1.0153333333333332</v>
       </c>
+      <c r="Z12">
+        <f t="shared" si="3"/>
+        <v>0.10101925009070739</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1911,6 +2219,10 @@
         <f>AVERAGE(B13:K13)</f>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="N13" s="3">
         <v>10</v>
       </c>
@@ -1948,8 +2260,12 @@
         <f>AVERAGE(O13:X13)</f>
         <v>1.1333333333333333</v>
       </c>
+      <c r="Z13">
+        <f t="shared" si="3"/>
+        <v>0.10370899457402698</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1984,8 +2300,12 @@
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" ref="L14" si="6">AVERAGE(B14:K14)</f>
+        <f t="shared" ref="L14" si="8">AVERAGE(B14:K14)</f>
         <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="N14" s="3">
         <v>11</v>
@@ -2021,11 +2341,15 @@
         <v>1.2933333333333332</v>
       </c>
       <c r="Y14" s="5">
-        <f t="shared" ref="Y14" si="7">AVERAGE(O14:X14)</f>
+        <f t="shared" ref="Y14" si="9">AVERAGE(O14:X14)</f>
         <v>1.1866666666666665</v>
       </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>0.12757568559704369</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2063,6 +2387,10 @@
         <f>AVERAGE(B15:K15)</f>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
       <c r="N15" s="3">
         <v>12</v>
       </c>
@@ -2100,8 +2428,12 @@
         <f>AVERAGE(O15:X15)</f>
         <v>1.2080000000000002</v>
       </c>
+      <c r="Z15">
+        <f t="shared" si="3"/>
+        <v>0.14201095419407189</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2136,8 +2468,12 @@
         <v>0</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" ref="L16:L17" si="8">AVERAGE(B16:K16)</f>
+        <f t="shared" ref="L16:L17" si="10">AVERAGE(B16:K16)</f>
         <v>0.13333333333333333</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0.22110831935702668</v>
       </c>
       <c r="N16" s="3">
         <v>13</v>
@@ -2173,11 +2509,15 @@
         <v>1.36</v>
       </c>
       <c r="Y16" s="5">
-        <f t="shared" ref="Y16:Y17" si="9">AVERAGE(O16:X16)</f>
+        <f t="shared" ref="Y16:Y17" si="11">AVERAGE(O16:X16)</f>
         <v>1.3926666666666665</v>
       </c>
+      <c r="Z16">
+        <f t="shared" si="3"/>
+        <v>0.353665881243238</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2212,8 +2552,12 @@
         <v>0</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.19999999999999998</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0.30550504633038938</v>
       </c>
       <c r="N17" s="3">
         <v>14</v>
@@ -2249,11 +2593,15 @@
         <v>1.4533333333333334</v>
       </c>
       <c r="Y17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5606666666666666</v>
       </c>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>0.34340064065170234</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2291,6 +2639,10 @@
         <f>AVERAGE(B18:K18)</f>
         <v>0.13333333333333333</v>
       </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
       <c r="N18" s="3">
         <v>15</v>
       </c>
@@ -2328,8 +2680,12 @@
         <f>AVERAGE(O18:X18)</f>
         <v>1.4306666666666665</v>
       </c>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>0.4239937106451781</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -2338,43 +2694,43 @@
         <v>0</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" ref="C19:L19" si="10">AVERAGE(C3:C18)</f>
+        <f t="shared" ref="C19:L19" si="12">AVERAGE(C3:C18)</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.125</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.10416666666666666</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.1875</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.10416666666666666</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.25E-2</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12499999999999999</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -2385,43 +2741,43 @@
         <v>1.0904166666666668</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" ref="P19:Y19" si="11">AVERAGE(P3:P18)</f>
+        <f t="shared" ref="P19:Y19" si="13">AVERAGE(P3:P18)</f>
         <v>1.2362500000000001</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3412500000000001</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1858333333333333</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2475000000000001</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2308333333333337</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2770833333333333</v>
       </c>
       <c r="V19" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.25875</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5524999999999998</v>
       </c>
       <c r="X19" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3116666666666663</v>
       </c>
       <c r="Y19" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2732083333333333</v>
       </c>
     </row>
